--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/131.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/131.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1676406534392665</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.249662965313195</v>
+        <v>-1.272879190006734</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1138813350586818</v>
+        <v>-0.05766948355869692</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1771817200400285</v>
+        <v>-0.2136989828417459</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1390222245347419</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.329742222955264</v>
+        <v>-1.372511411682253</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2040028034700213</v>
+        <v>-0.1488494868359451</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1783234776471191</v>
+        <v>-0.2137238036592914</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1036829421786017</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.445125443435506</v>
+        <v>-1.512054047922761</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2247077454471975</v>
+        <v>-0.1439072240482192</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1825795178321179</v>
+        <v>-0.2462536751247372</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.06237497852898367</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.61514220342946</v>
+        <v>-1.689543334045986</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.229689429533378</v>
+        <v>-0.1493415230425814</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1734483770715749</v>
+        <v>-0.2373459217221032</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.007735955334743522</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.73317249109852</v>
+        <v>-1.794262363270231</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2383781757223757</v>
+        <v>-0.1664299258985768</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1873042334542985</v>
+        <v>-0.2305187368490141</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.06705194327231898</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.582110075420742</v>
+        <v>-1.6729031659539</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1588493562105788</v>
+        <v>-0.07773200437587335</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1630104932696686</v>
+        <v>-0.20883702269902</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1660886061338888</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.400537034787245</v>
+        <v>-1.472997761490953</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.08047251464250897</v>
+        <v>-0.006801408071437851</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.145669502093946</v>
+        <v>-0.1860558923365715</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2894400293112957</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.156638921297129</v>
+        <v>-1.248183936597105</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04221094629227626</v>
+        <v>0.1271477839327989</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1429552726929467</v>
+        <v>-0.1723095395606661</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.437197641281955</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7866393742914103</v>
+        <v>-0.8823426065542936</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1381711470191596</v>
+        <v>0.2081497919683226</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1215495076321343</v>
+        <v>-0.1278466950482235</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.6096866695839501</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4284457761487792</v>
+        <v>-0.5167757655525737</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1500865994890655</v>
+        <v>0.1828632190818749</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05972669131878727</v>
+        <v>-0.06252560350905925</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.8068709804740428</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08534368699390105</v>
+        <v>0.03596194046318703</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1401246913647954</v>
+        <v>0.1445997387634306</v>
       </c>
       <c r="G12" t="n">
-        <v>0.046932741818275</v>
+        <v>0.05167205792136463</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>1.028018714356936</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5903013192346745</v>
+        <v>0.5223258602662383</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07351729745754058</v>
+        <v>0.08688841787408244</v>
       </c>
       <c r="G13" t="n">
-        <v>0.187227302825601</v>
+        <v>0.1968110584943256</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.269613968069838</v>
       </c>
       <c r="E14" t="n">
-        <v>1.145715293401071</v>
+        <v>1.091170816820904</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03360205082815793</v>
+        <v>-0.03118859133388585</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3057437865089327</v>
+        <v>0.3150734938098393</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.523771671560142</v>
       </c>
       <c r="E15" t="n">
-        <v>1.78465277865599</v>
+        <v>1.713989371152191</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1773905069170284</v>
+        <v>-0.1609343048843965</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5045322541823339</v>
+        <v>0.5377702489718704</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.780216682971859</v>
       </c>
       <c r="E16" t="n">
-        <v>2.459654911804445</v>
+        <v>2.400063048974007</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.366849267289523</v>
+        <v>-0.3072457240743572</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6394231772052068</v>
+        <v>0.6556297110142933</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2.031825214766849</v>
       </c>
       <c r="E17" t="n">
-        <v>3.08844652287564</v>
+        <v>3.06162981958992</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5055173347235766</v>
+        <v>-0.4314432548794148</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7913295006795297</v>
+        <v>0.8000722686478909</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.273705655867904</v>
       </c>
       <c r="E18" t="n">
-        <v>3.704548855988747</v>
+        <v>3.682324003948935</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6408783932317221</v>
+        <v>-0.5751397279385579</v>
       </c>
       <c r="G18" t="n">
-        <v>0.956436118943758</v>
+        <v>0.9860809353815683</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.497952895099718</v>
       </c>
       <c r="E19" t="n">
-        <v>4.226216738629971</v>
+        <v>4.198535686874433</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.798173754209589</v>
+        <v>-0.735631134187424</v>
       </c>
       <c r="G19" t="n">
-        <v>1.088291601985632</v>
+        <v>1.100919557923901</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.693249859780135</v>
       </c>
       <c r="E20" t="n">
-        <v>4.730616632500017</v>
+        <v>4.67115471394967</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9881946330970834</v>
+        <v>-0.9175370657856479</v>
       </c>
       <c r="G20" t="n">
-        <v>1.24423933857559</v>
+        <v>1.280963928206216</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.853137956034399</v>
       </c>
       <c r="E21" t="n">
-        <v>5.224206330304976</v>
+        <v>5.197389627019255</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.178184850974669</v>
+        <v>-1.126948843368501</v>
       </c>
       <c r="G21" t="n">
-        <v>1.411109694933636</v>
+        <v>1.444521435445991</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.973905173496768</v>
       </c>
       <c r="E22" t="n">
-        <v>5.616246763291052</v>
+        <v>5.595712646940513</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.3671559552848</v>
+        <v>-1.333208377123082</v>
       </c>
       <c r="G22" t="n">
-        <v>1.528937035918059</v>
+        <v>1.562144369697686</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.054634591882784</v>
       </c>
       <c r="E23" t="n">
-        <v>5.883710052968435</v>
+        <v>5.836626422132811</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.559742138668021</v>
+        <v>-1.526245715366394</v>
       </c>
       <c r="G23" t="n">
-        <v>1.673877469950656</v>
+        <v>1.700183156404558</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.096155433927677</v>
       </c>
       <c r="E24" t="n">
-        <v>6.179428193301083</v>
+        <v>6.124745012152279</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.703076519800619</v>
+        <v>-1.675472850593899</v>
       </c>
       <c r="G24" t="n">
-        <v>1.815088941159073</v>
+        <v>1.86115053833106</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.103516559190754</v>
       </c>
       <c r="E25" t="n">
-        <v>6.326342612352589</v>
+        <v>6.227783526023888</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.855359535682396</v>
+        <v>-1.841481048554263</v>
       </c>
       <c r="G25" t="n">
-        <v>1.864428346295151</v>
+        <v>1.875251682793057</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.080484529253185</v>
       </c>
       <c r="E26" t="n">
-        <v>6.410835595373475</v>
+        <v>6.274951839648785</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.916525330354834</v>
+        <v>-1.877977870682708</v>
       </c>
       <c r="G26" t="n">
-        <v>1.879712129710783</v>
+        <v>1.878922243693601</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.029258365398112</v>
       </c>
       <c r="E27" t="n">
-        <v>6.43524905950156</v>
+        <v>6.261214247161424</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.988553882823633</v>
+        <v>-1.939075043094874</v>
       </c>
       <c r="G27" t="n">
-        <v>1.977325104876575</v>
+        <v>1.972184275548485</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.949666048976673</v>
       </c>
       <c r="E28" t="n">
-        <v>6.528538832270171</v>
+        <v>6.3514262385544</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.062957203512295</v>
+        <v>-2.018224250103034</v>
       </c>
       <c r="G28" t="n">
-        <v>2.024270031143562</v>
+        <v>2.013296309692292</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.844798654498344</v>
       </c>
       <c r="E29" t="n">
-        <v>6.432136236971743</v>
+        <v>6.237425683616249</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.117865232067098</v>
+        <v>-2.071442272992611</v>
       </c>
       <c r="G29" t="n">
-        <v>2.040372901538194</v>
+        <v>2.02923127455647</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.718415069616827</v>
       </c>
       <c r="E30" t="n">
-        <v>6.406420409946567</v>
+        <v>6.210703883456438</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.211553597964528</v>
+        <v>-2.204724953043347</v>
       </c>
       <c r="G30" t="n">
-        <v>2.062949625167915</v>
+        <v>2.068810258204823</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.573852396936473</v>
       </c>
       <c r="E31" t="n">
-        <v>6.311362518939865</v>
+        <v>6.08799998184838</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.244176912507791</v>
+        <v>-2.287282642319735</v>
       </c>
       <c r="G31" t="n">
-        <v>2.010973373179657</v>
+        <v>1.990024603171299</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.413484726652752</v>
       </c>
       <c r="E32" t="n">
-        <v>6.117929507663917</v>
+        <v>5.878725448786073</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.275839515407238</v>
+        <v>-2.32585273273727</v>
       </c>
       <c r="G32" t="n">
-        <v>1.970540261398122</v>
+        <v>1.942432875600039</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.243809435272782</v>
       </c>
       <c r="E33" t="n">
-        <v>5.934398542540512</v>
+        <v>5.714210149998662</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.311969135440819</v>
+        <v>-2.391731562647161</v>
       </c>
       <c r="G33" t="n">
-        <v>1.946719576794947</v>
+        <v>1.941107151933494</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.069898233579324</v>
       </c>
       <c r="E34" t="n">
-        <v>5.695623737801395</v>
+        <v>5.482034762630452</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.40271185431484</v>
+        <v>-2.476505604925547</v>
       </c>
       <c r="G34" t="n">
-        <v>1.875013694954239</v>
+        <v>1.868068246185786</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.895602706834548</v>
       </c>
       <c r="E35" t="n">
-        <v>5.496623563154811</v>
+        <v>5.284288769293959</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.412056892120701</v>
+        <v>-2.497586509286132</v>
       </c>
       <c r="G35" t="n">
-        <v>1.81052191073071</v>
+        <v>1.813247820516437</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.722288534401482</v>
       </c>
       <c r="E36" t="n">
-        <v>5.309062865300499</v>
+        <v>5.086513574995649</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.39248494746207</v>
+        <v>-2.468608934825868</v>
       </c>
       <c r="G36" t="n">
-        <v>1.719539013945735</v>
+        <v>1.713872567304918</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.554135049580453</v>
       </c>
       <c r="E37" t="n">
-        <v>4.950362630470322</v>
+        <v>4.745931076925559</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.334840788784903</v>
+        <v>-2.420517870807517</v>
       </c>
       <c r="G37" t="n">
-        <v>1.627093148973669</v>
+        <v>1.619988554963307</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.393063545908672</v>
       </c>
       <c r="E38" t="n">
-        <v>4.736767815107016</v>
+        <v>4.547726628488521</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.233317074807613</v>
+        <v>-2.295333347493005</v>
       </c>
       <c r="G38" t="n">
-        <v>1.545991857667963</v>
+        <v>1.523120204323879</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.239893336709749</v>
       </c>
       <c r="E39" t="n">
-        <v>4.402742393013196</v>
+        <v>4.197491752489433</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.206095938200711</v>
+        <v>-2.257993347592061</v>
       </c>
       <c r="G39" t="n">
-        <v>1.432950554325539</v>
+        <v>1.416548374072271</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.093726362525067</v>
       </c>
       <c r="E40" t="n">
-        <v>4.087217240279281</v>
+        <v>3.856627465137798</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.156530955634588</v>
+        <v>-2.186254614669307</v>
       </c>
       <c r="G40" t="n">
-        <v>1.340844880558655</v>
+        <v>1.309107815206572</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9571791898847349</v>
       </c>
       <c r="E41" t="n">
-        <v>3.801043434316903</v>
+        <v>3.59026505172096</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.071981030738156</v>
+        <v>-2.102969091419602</v>
       </c>
       <c r="G41" t="n">
-        <v>1.225836892437777</v>
+        <v>1.19198859754624</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8309603918595234</v>
       </c>
       <c r="E42" t="n">
-        <v>3.510095271097254</v>
+        <v>3.256008942028777</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.965435481352185</v>
+        <v>-1.985573194646043</v>
       </c>
       <c r="G42" t="n">
-        <v>1.122081494953532</v>
+        <v>1.081937472693997</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7153739998018077</v>
       </c>
       <c r="E43" t="n">
-        <v>3.262136763866321</v>
+        <v>3.029475180483838</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.922157465865515</v>
+        <v>-1.951535823526734</v>
       </c>
       <c r="G43" t="n">
-        <v>1.026271679180012</v>
+        <v>0.9662476421146645</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6093975221473797</v>
       </c>
       <c r="E44" t="n">
-        <v>3.007644541428571</v>
+        <v>2.780414336944268</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.879830671710071</v>
+        <v>-1.915649301500289</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9026391869861361</v>
+        <v>0.852124443136877</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5138456712388086</v>
       </c>
       <c r="E45" t="n">
-        <v>2.742876500527005</v>
+        <v>2.507617491590796</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.75210055454906</v>
+        <v>-1.770917654344691</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7859609038492583</v>
+        <v>0.7379005008408167</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4278043596248319</v>
       </c>
       <c r="E46" t="n">
-        <v>2.531103825181154</v>
+        <v>2.299456975221852</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.692291144553076</v>
+        <v>-1.683075321003261</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7579907625717204</v>
+        <v>0.7179606240632767</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3498622028403542</v>
       </c>
       <c r="E47" t="n">
-        <v>2.228470897089962</v>
+        <v>1.982241086798664</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.632616058981456</v>
+        <v>-1.634766709819364</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6341772244145718</v>
+        <v>0.5895391741312203</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2783423158869838</v>
       </c>
       <c r="E48" t="n">
-        <v>2.063622707337824</v>
+        <v>1.847350163775792</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.581837046427742</v>
+        <v>-1.56811113432511</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5696138978345892</v>
+        <v>0.5249787676474194</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2135994366880498</v>
       </c>
       <c r="E49" t="n">
-        <v>1.871150407705694</v>
+        <v>1.6469541831543</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.544464195444752</v>
+        <v>-1.548705635148842</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4997447564922443</v>
+        <v>0.4445417982230773</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1550103187438598</v>
       </c>
       <c r="E50" t="n">
-        <v>1.769550041203631</v>
+        <v>1.537986413985511</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.444056688232961</v>
+        <v>-1.422834889231603</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4359070738134433</v>
+        <v>0.3847688894293661</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.102125656786344</v>
       </c>
       <c r="E51" t="n">
-        <v>1.603511912257402</v>
+        <v>1.377008811722372</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.383158082361159</v>
+        <v>-1.3645380890578</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3668584794981891</v>
+        <v>0.3127695379223854</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.05421835787545288</v>
       </c>
       <c r="E52" t="n">
-        <v>1.495805624639159</v>
+        <v>1.285560159596397</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.332355709037991</v>
+        <v>-1.305963879746725</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2884276161507556</v>
+        <v>0.2409848134847683</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.0109481378752942</v>
       </c>
       <c r="E53" t="n">
-        <v>1.288627720635396</v>
+        <v>1.062245804091911</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.282395783463277</v>
+        <v>-1.249055585307377</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2449167229935855</v>
+        <v>0.2024702048946878</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.02901237484197936</v>
       </c>
       <c r="E54" t="n">
-        <v>1.319899030646479</v>
+        <v>1.134347358965256</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.273496790349189</v>
+        <v>-1.236861263652107</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1703885681931509</v>
+        <v>0.1151082273751658</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.06671172173124741</v>
       </c>
       <c r="E55" t="n">
-        <v>1.155808605853523</v>
+        <v>0.9511157037004867</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.24065738868847</v>
+        <v>-1.211030092827751</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1219981943161639</v>
+        <v>0.06507237929972468</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1031172258908111</v>
       </c>
       <c r="E56" t="n">
-        <v>1.13677979908471</v>
+        <v>0.9192472340202226</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.205497970611298</v>
+        <v>-1.18058078989185</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0817446684498111</v>
+        <v>0.03530345877418721</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1386563082335749</v>
       </c>
       <c r="E57" t="n">
-        <v>1.039641339548463</v>
+        <v>0.8167547781346137</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.177597911642124</v>
+        <v>-1.136580780624225</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05853720404481733</v>
+        <v>0.004337298814104613</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1738088296689546</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9733040545380263</v>
+        <v>0.7684052856041722</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.152587287844858</v>
+        <v>-1.117059937648776</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.03013881675652249</v>
+        <v>-0.08342035173805364</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2083952874831423</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8681674515597817</v>
+        <v>0.6266419162173921</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.075955203745423</v>
+        <v>-1.058993825073337</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1016665727301397</v>
+        <v>-0.1530485851453986</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2424324642096884</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8598086762393294</v>
+        <v>0.6238181832095746</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.027515188233346</v>
+        <v>-1.000967133796353</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1263107244565876</v>
+        <v>-0.1893439206372979</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2756086219662924</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7418922723213611</v>
+        <v>0.4914005816527011</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.019197294259439</v>
+        <v>-1.004335464742079</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1672154317714857</v>
+        <v>-0.2358026508900127</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3079661059934855</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6781772336821964</v>
+        <v>0.4004279052043619</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.023673801706165</v>
+        <v>-0.9919469566907188</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2388585315442846</v>
+        <v>-0.3064602182014483</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3393710143214427</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6249701611533016</v>
+        <v>0.3591786265400093</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.080203943689968</v>
+        <v>-1.067574527703608</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2665001620013681</v>
+        <v>-0.3414283699787116</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3703977505025124</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5482344136394132</v>
+        <v>0.2596456881346724</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.053911397668884</v>
+        <v>-1.028210171124618</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3177814310983543</v>
+        <v>-0.3977497250855147</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4011611850090698</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4898689912053379</v>
+        <v>0.1829391415826021</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.005313696962988</v>
+        <v>-0.9572372334255462</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3488570946652551</v>
+        <v>-0.4214740465146901</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4316100840954356</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4389264532654424</v>
+        <v>0.134342900924797</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.036837595293798</v>
+        <v>-1.007546110493987</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3716411451238854</v>
+        <v>-0.4447472130837748</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4611448255704287</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4530421982083478</v>
+        <v>0.1655718695412431</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.037589520060616</v>
+        <v>-0.9849723069604479</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3886901266814262</v>
+        <v>-0.4661909393949509</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4894557947595754</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3624170132056448</v>
+        <v>0.06639956301436067</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.071407153942243</v>
+        <v>-1.040249727682251</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3980636354250601</v>
+        <v>-0.4729042405169491</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5159392970910227</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2892934246686645</v>
+        <v>0.01262161168192057</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.10766598823187</v>
+        <v>-1.071036301727152</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4117486661811473</v>
+        <v>-0.4773427867133115</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5394120287559979</v>
       </c>
       <c r="E70" t="n">
-        <v>0.250504327037493</v>
+        <v>-0.02035065435507058</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.183606009536213</v>
+        <v>-1.145376110323859</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4474512221481377</v>
+        <v>-0.5212712536244816</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5582795170746419</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1863133127206921</v>
+        <v>-0.08433142174678067</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.305530245463725</v>
+        <v>-1.281102180854732</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5112757643941206</v>
+        <v>-0.5988859500890971</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5717441755916051</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1293626768867074</v>
+        <v>-0.1351425553584943</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.340786026714898</v>
+        <v>-1.323172006546175</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5059013273714856</v>
+        <v>-0.580160833323193</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5789583542596026</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1111091556541668</v>
+        <v>-0.1342460858306763</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.336667231050444</v>
+        <v>-1.326233727392811</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5326362679641148</v>
+        <v>-0.6149756800509109</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5790531844405674</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1686160698107878</v>
+        <v>-0.08344225245941728</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.374914650839889</v>
+        <v>-1.35775616567553</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5430011493614757</v>
+        <v>-0.6166357547302741</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5709714411708992</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1857409738690559</v>
+        <v>-0.02881893328234103</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.437149200714872</v>
+        <v>-1.417708660384423</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5061933369896674</v>
+        <v>-0.600788392751551</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.554262292819577</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2254586620860452</v>
+        <v>0.01252232841173878</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.364900180984346</v>
+        <v>-1.325544584693902</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5063627025682128</v>
+        <v>-0.5985311584030062</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5283175565136677</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3536581847082835</v>
+        <v>0.1445369566955215</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.357294790478802</v>
+        <v>-1.325674528973993</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4363738372824134</v>
+        <v>-0.5096551110132119</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4927931555695766</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4475976788773492</v>
+        <v>0.2862813454571198</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.306993213650816</v>
+        <v>-1.272187127211644</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4525497100815909</v>
+        <v>-0.5334743355682964</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4476127926714326</v>
       </c>
       <c r="E79" t="n">
-        <v>0.524745159952874</v>
+        <v>0.3757691529970049</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.279011391988551</v>
+        <v>-1.234773394882108</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4070268706551486</v>
+        <v>-0.4791605465864928</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3938263928710858</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6394976396578431</v>
+        <v>0.5146255666347858</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.288841895784639</v>
+        <v>-1.25545497608983</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3703928040061584</v>
+        <v>-0.4348597674121411</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3329801814284291</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6818682352560136</v>
+        <v>0.529191006389691</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.239858742382743</v>
+        <v>-1.187406514716848</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2878314646095442</v>
+        <v>-0.3463560322855285</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2672982966186598</v>
       </c>
       <c r="E82" t="n">
-        <v>0.784989971868804</v>
+        <v>0.6516802809283854</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.169440622958217</v>
+        <v>-1.130051445561682</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2738135428887298</v>
+        <v>-0.3182851476897178</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1996211994724882</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9089334543060436</v>
+        <v>0.7768224628482608</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.132609449816954</v>
+        <v>-1.097619397318327</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2137559247172914</v>
+        <v>-0.2549964430930985</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1339289979601569</v>
       </c>
       <c r="E84" t="n">
-        <v>1.105355184024082</v>
+        <v>1.014087577861379</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.058625892954428</v>
+        <v>-1.036333878702434</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1821269029239362</v>
+        <v>-0.2230038693251071</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.07387631901768574</v>
       </c>
       <c r="E85" t="n">
-        <v>1.184518991513151</v>
+        <v>1.094632590844448</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9569875652020009</v>
+        <v>-0.9159324729337391</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1265136711412239</v>
+        <v>-0.1613723193116691</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.02234464813854023</v>
       </c>
       <c r="E86" t="n">
-        <v>1.36003721271365</v>
+        <v>1.296774788982667</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8742378796016594</v>
+        <v>-0.8442470317663039</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05708984446660616</v>
+        <v>-0.0803425703624181</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.01807622821569091</v>
       </c>
       <c r="E87" t="n">
-        <v>1.455887909833715</v>
+        <v>1.412511341100908</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7784207635876852</v>
+        <v>-0.7704956225502327</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01763496490598039</v>
+        <v>-0.03057829123188601</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.04447658831073705</v>
       </c>
       <c r="E88" t="n">
-        <v>1.538224401824329</v>
+        <v>1.507786779273155</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6470806775219022</v>
+        <v>-0.6445635546131757</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02018174069664581</v>
+        <v>-7.49665166214745e-05</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.05472197641804313</v>
       </c>
       <c r="E89" t="n">
-        <v>1.61849930591058</v>
+        <v>1.616439178054308</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.544579461347748</v>
+        <v>-0.5581695889779261</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06678647575845148</v>
+        <v>0.06117259084890753</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.04744673885179223</v>
       </c>
       <c r="E90" t="n">
-        <v>1.659869768566478</v>
+        <v>1.672011528490475</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4440040486055022</v>
+        <v>-0.4596105026492254</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07941443169672081</v>
+        <v>0.06679231595081511</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.02174545130993087</v>
       </c>
       <c r="E91" t="n">
-        <v>1.66964187043893</v>
+        <v>1.693354511483378</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2745800681364569</v>
+        <v>-0.2845974580881814</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1073422315796224</v>
+        <v>0.1088183401995311</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.02218050582885465</v>
       </c>
       <c r="E92" t="n">
-        <v>1.673655542640838</v>
+        <v>1.689021088749561</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1324049651880405</v>
+        <v>-0.155359841273307</v>
       </c>
       <c r="G92" t="n">
-        <v>0.131288480318616</v>
+        <v>0.130568676609798</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.08170934554356213</v>
       </c>
       <c r="E93" t="n">
-        <v>1.68567611857329</v>
+        <v>1.729811912313369</v>
       </c>
       <c r="F93" t="n">
-        <v>0.02992610165537047</v>
+        <v>0.02308577634946321</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1179290402868014</v>
+        <v>0.1149563823737113</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1514689945293757</v>
       </c>
       <c r="E94" t="n">
-        <v>1.62892696937585</v>
+        <v>1.684029184326745</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1338216637563426</v>
+        <v>0.108723437073622</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05762759408418121</v>
+        <v>0.05628580988863612</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2248306381429928</v>
       </c>
       <c r="E95" t="n">
-        <v>1.554429475585325</v>
+        <v>1.621445682958034</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2205236995387738</v>
+        <v>0.2132833210559576</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01865599044164622</v>
+        <v>0.0259533108000079</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2943229466887255</v>
       </c>
       <c r="E96" t="n">
-        <v>1.438310390867265</v>
+        <v>1.516757314743699</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2735862273066687</v>
+        <v>0.2618941621946718</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005534086328529099</v>
+        <v>0.01084911329955741</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3536919310449163</v>
       </c>
       <c r="E97" t="n">
-        <v>1.301617768500211</v>
+        <v>1.36310623380074</v>
       </c>
       <c r="F97" t="n">
-        <v>0.331807104979744</v>
+        <v>0.319189369378111</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03869323852115656</v>
+        <v>-0.03562421743406648</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3984159579792734</v>
       </c>
       <c r="E98" t="n">
-        <v>1.183621061937242</v>
+        <v>1.258082054525495</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3467944986329217</v>
+        <v>0.3422887902243775</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04931946852679007</v>
+        <v>-0.03024394021906792</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4282617625767041</v>
       </c>
       <c r="E99" t="n">
-        <v>1.037665894481463</v>
+        <v>1.095066225127448</v>
       </c>
       <c r="F99" t="n">
-        <v>0.350884093335557</v>
+        <v>0.3471346898381035</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09686739465532275</v>
+        <v>-0.09414002482150531</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4442652666056772</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9494512488768508</v>
+        <v>1.001174912545382</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3071775537342051</v>
+        <v>0.3085718996610229</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1348096643937671</v>
+        <v>-0.146278342147855</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4490989105007918</v>
       </c>
       <c r="E101" t="n">
-        <v>0.82727296458152</v>
+        <v>0.8740266245485984</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3424464754181956</v>
+        <v>0.3567607869014645</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09962834559523111</v>
+        <v>-0.08100543219569065</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4435118006393137</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6909117731311021</v>
+        <v>0.7275093385778195</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2832298449471206</v>
+        <v>0.2925756127770272</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1915077119080246</v>
+        <v>-0.1856470788711171</v>
       </c>
     </row>
   </sheetData>
